--- a/netflix/tv-views-by-genre.xlsx
+++ b/netflix/tv-views-by-genre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfrench/Documents/GitHub/mfrench022.github.io/netflix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F61FAA-396C-3245-AA1C-A78BBB3AB4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671D1AC-7860-EF49-BDC1-DA7810690CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="680" windowWidth="17160" windowHeight="20620" xr2:uid="{21CC8580-87DA-0D46-8496-36EF45DF49AC}"/>
+    <workbookView xWindow="19240" yWindow="680" windowWidth="15320" windowHeight="20620" xr2:uid="{21CC8580-87DA-0D46-8496-36EF45DF49AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <t>Game Show</t>
   </si>
   <si>
-    <t>Views</t>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -931,10 +931,9 @@
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -951,19 +950,19 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -976,7 +975,7 @@
       <c r="C2">
         <v>1600000</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>59800000</v>
       </c>
     </row>
@@ -987,7 +986,7 @@
       <c r="B3">
         <v>4600000</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>111600000</v>
       </c>
     </row>
@@ -998,7 +997,7 @@
       <c r="B4">
         <v>8600000</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>42800000</v>
       </c>
     </row>
@@ -1009,7 +1008,7 @@
       <c r="B5">
         <v>31100000</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>50800000</v>
       </c>
     </row>
@@ -1023,7 +1022,7 @@
       <c r="C6">
         <v>1800000</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>129300000</v>
       </c>
     </row>
@@ -1034,7 +1033,7 @@
       <c r="B7">
         <v>63200000</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>5000000</v>
       </c>
     </row>
@@ -1045,10 +1044,10 @@
       <c r="B8">
         <v>14000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1600000</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>83100000</v>
       </c>
     </row>
@@ -1062,11 +1061,11 @@
       <c r="C9">
         <v>2000000</v>
       </c>
-      <c r="F9">
+      <c r="H9">
+        <v>7800000</v>
+      </c>
+      <c r="I9">
         <v>157600000</v>
-      </c>
-      <c r="I9">
-        <v>7800000</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1076,10 +1075,10 @@
       <c r="B10">
         <v>28200000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>10500000</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>60600000</v>
       </c>
     </row>
@@ -1090,11 +1089,11 @@
       <c r="B11">
         <v>85500000</v>
       </c>
-      <c r="F11">
+      <c r="H11">
+        <v>2600000</v>
+      </c>
+      <c r="I11">
         <v>180400000</v>
-      </c>
-      <c r="I11">
-        <v>2600000</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1107,7 +1106,7 @@
       <c r="C12">
         <v>4000000</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>99100000</v>
       </c>
     </row>
@@ -1121,10 +1120,10 @@
       <c r="C13">
         <v>2200000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>33500000</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>166600000</v>
       </c>
     </row>
@@ -1135,11 +1134,11 @@
       <c r="B14">
         <v>17700000</v>
       </c>
-      <c r="F14">
+      <c r="E14">
+        <v>14600000</v>
+      </c>
+      <c r="I14">
         <v>153700000</v>
-      </c>
-      <c r="G14">
-        <v>14600000</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1152,11 +1151,11 @@
       <c r="C15">
         <v>3300000</v>
       </c>
-      <c r="F15">
+      <c r="H15">
+        <v>1700000</v>
+      </c>
+      <c r="I15">
         <v>185400000</v>
-      </c>
-      <c r="I15">
-        <v>1700000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1169,10 +1168,10 @@
       <c r="C16">
         <v>54900000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3500000</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>364300000</v>
       </c>
     </row>
@@ -1186,10 +1185,10 @@
       <c r="C17">
         <v>23600000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>10600000</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>183500000</v>
       </c>
     </row>
@@ -1206,14 +1205,14 @@
       <c r="D18">
         <v>2800000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>36700000</v>
       </c>
-      <c r="F18">
+      <c r="H18">
+        <v>1600000</v>
+      </c>
+      <c r="I18">
         <v>227500000</v>
-      </c>
-      <c r="I18">
-        <v>1600000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1229,10 +1228,10 @@
       <c r="D19">
         <v>3700000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>8200000</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>503100000</v>
       </c>
     </row>
@@ -1246,10 +1245,10 @@
       <c r="C20">
         <v>20200000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>14200000</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>333900000</v>
       </c>
     </row>
@@ -1263,14 +1262,14 @@
       <c r="C21">
         <v>31600000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>21200000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
+        <v>2100000</v>
+      </c>
+      <c r="I21">
         <v>382100000</v>
-      </c>
-      <c r="H21">
-        <v>2100000</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1283,14 +1282,14 @@
       <c r="C22">
         <v>70400000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>19000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
+        <v>3200000</v>
+      </c>
+      <c r="I22">
         <v>388700000</v>
-      </c>
-      <c r="H22">
-        <v>3200000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1303,14 +1302,14 @@
       <c r="C23">
         <v>186800000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>49000000</v>
       </c>
-      <c r="F23">
+      <c r="H23">
+        <v>1600000</v>
+      </c>
+      <c r="I23">
         <v>1188500000</v>
-      </c>
-      <c r="I23">
-        <v>1600000</v>
       </c>
     </row>
   </sheetData>

--- a/netflix/tv-views-by-genre.xlsx
+++ b/netflix/tv-views-by-genre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfrench/Documents/GitHub/mfrench022.github.io/netflix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671D1AC-7860-EF49-BDC1-DA7810690CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5779E27-E2C1-5549-83D1-A23A33089655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19240" yWindow="680" windowWidth="15320" windowHeight="20620" xr2:uid="{21CC8580-87DA-0D46-8496-36EF45DF49AC}"/>
   </bookViews>
